--- a/nfl.stadiums.xlsx
+++ b/nfl.stadiums.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t xml:space="preserve">stadium</t>
   </si>
@@ -26,6 +26,9 @@
     <t xml:space="preserve">state</t>
   </si>
   <si>
+    <t xml:space="preserve">zip.code</t>
+  </si>
+  <si>
     <t xml:space="preserve">latitude</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t xml:space="preserve">Pennsylvania</t>
   </si>
   <si>
+    <t xml:space="preserve">15212</t>
+  </si>
+  <si>
     <t xml:space="preserve">Open Air</t>
   </si>
   <si>
@@ -62,6 +68,9 @@
     <t xml:space="preserve">Nevada</t>
   </si>
   <si>
+    <t xml:space="preserve">89118</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dome</t>
   </si>
   <si>
@@ -74,6 +83,9 @@
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
+    <t xml:space="preserve">80939</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT&amp;T Stadium</t>
   </si>
   <si>
@@ -83,6 +95,9 @@
     <t xml:space="preserve">Texas</t>
   </si>
   <si>
+    <t xml:space="preserve">76011</t>
+  </si>
+  <si>
     <t xml:space="preserve">Retractable Roof</t>
   </si>
   <si>
@@ -98,6 +113,9 @@
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">06860</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bank of America Stadium</t>
   </si>
   <si>
@@ -107,6 +125,9 @@
     <t xml:space="preserve">North Carolina</t>
   </si>
   <si>
+    <t xml:space="preserve">28202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caesars Superdome</t>
   </si>
   <si>
@@ -116,6 +137,9 @@
     <t xml:space="preserve">Louisiana</t>
   </si>
   <si>
+    <t xml:space="preserve">70112</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empower Field at Mile High</t>
   </si>
   <si>
@@ -125,6 +149,9 @@
     <t xml:space="preserve">Colorado</t>
   </si>
   <si>
+    <t xml:space="preserve">80204</t>
+  </si>
+  <si>
     <t xml:space="preserve">FedExField</t>
   </si>
   <si>
@@ -134,6 +161,9 @@
     <t xml:space="preserve">Maryland</t>
   </si>
   <si>
+    <t xml:space="preserve">20785</t>
+  </si>
+  <si>
     <t xml:space="preserve">FirstEnergy Stadium</t>
   </si>
   <si>
@@ -143,6 +173,9 @@
     <t xml:space="preserve">Ohio</t>
   </si>
   <si>
+    <t xml:space="preserve">44114</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ford Field</t>
   </si>
   <si>
@@ -152,6 +185,9 @@
     <t xml:space="preserve">Michigan</t>
   </si>
   <si>
+    <t xml:space="preserve">48226</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEHA Field at Arrowhead Stadium</t>
   </si>
   <si>
@@ -161,6 +197,9 @@
     <t xml:space="preserve">Missouri</t>
   </si>
   <si>
+    <t xml:space="preserve">64145</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gillette Stadium</t>
   </si>
   <si>
@@ -170,6 +209,9 @@
     <t xml:space="preserve">Massachusetts</t>
   </si>
   <si>
+    <t xml:space="preserve">02035</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hard Rock Stadium</t>
   </si>
   <si>
@@ -179,6 +221,9 @@
     <t xml:space="preserve">Florida</t>
   </si>
   <si>
+    <t xml:space="preserve">33056</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambeau Field</t>
   </si>
   <si>
@@ -188,6 +233,9 @@
     <t xml:space="preserve">Wisconsin</t>
   </si>
   <si>
+    <t xml:space="preserve">54304</t>
+  </si>
+  <si>
     <t xml:space="preserve">Levi's Stadium</t>
   </si>
   <si>
@@ -197,12 +245,18 @@
     <t xml:space="preserve">California</t>
   </si>
   <si>
+    <t xml:space="preserve">95054</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lincoln Financial Field</t>
   </si>
   <si>
     <t xml:space="preserve">Philadelphia</t>
   </si>
   <si>
+    <t xml:space="preserve">19148</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lucas Oil Stadium</t>
   </si>
   <si>
@@ -212,6 +266,9 @@
     <t xml:space="preserve">Indiana</t>
   </si>
   <si>
+    <t xml:space="preserve">46225</t>
+  </si>
+  <si>
     <t xml:space="preserve">Astroturf</t>
   </si>
   <si>
@@ -224,12 +281,18 @@
     <t xml:space="preserve">Washington</t>
   </si>
   <si>
+    <t xml:space="preserve">98134</t>
+  </si>
+  <si>
     <t xml:space="preserve">M&amp;T Bank Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Baltimore</t>
   </si>
   <si>
+    <t xml:space="preserve">21230</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mercedes-Benz Stadium</t>
   </si>
   <si>
@@ -239,6 +302,9 @@
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">30313</t>
+  </si>
+  <si>
     <t xml:space="preserve">MetLife Stadium</t>
   </si>
   <si>
@@ -248,6 +314,9 @@
     <t xml:space="preserve">New Jersey</t>
   </si>
   <si>
+    <t xml:space="preserve">07073</t>
+  </si>
+  <si>
     <t xml:space="preserve">New Era Field</t>
   </si>
   <si>
@@ -257,6 +326,9 @@
     <t xml:space="preserve">New York</t>
   </si>
   <si>
+    <t xml:space="preserve">14127</t>
+  </si>
+  <si>
     <t xml:space="preserve">Astroplay</t>
   </si>
   <si>
@@ -269,30 +341,45 @@
     <t xml:space="preserve">Tennessee</t>
   </si>
   <si>
+    <t xml:space="preserve">37213</t>
+  </si>
+  <si>
     <t xml:space="preserve">NRG Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Houston</t>
   </si>
   <si>
+    <t xml:space="preserve">77054</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paycor Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Cincinnati</t>
   </si>
   <si>
+    <t xml:space="preserve">45202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raymond James Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Tampa</t>
   </si>
   <si>
+    <t xml:space="preserve">33607</t>
+  </si>
+  <si>
     <t xml:space="preserve">SoFi Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Inglewood</t>
   </si>
   <si>
+    <t xml:space="preserve">90301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Canopy</t>
   </si>
   <si>
@@ -308,6 +395,9 @@
     <t xml:space="preserve">Illinois</t>
   </si>
   <si>
+    <t xml:space="preserve">60605</t>
+  </si>
+  <si>
     <t xml:space="preserve">State Farm Stadium</t>
   </si>
   <si>
@@ -317,12 +407,18 @@
     <t xml:space="preserve">Arizona</t>
   </si>
   <si>
+    <t xml:space="preserve">85305</t>
+  </si>
+  <si>
     <t xml:space="preserve">TIAA Bank Stadium</t>
   </si>
   <si>
     <t xml:space="preserve">Jacksonville</t>
   </si>
   <si>
+    <t xml:space="preserve">32202</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tottenham Stadium</t>
   </si>
   <si>
@@ -332,6 +428,9 @@
     <t xml:space="preserve">England</t>
   </si>
   <si>
+    <t xml:space="preserve">N129QR</t>
+  </si>
+  <si>
     <t xml:space="preserve">U.S. Bank Stadium</t>
   </si>
   <si>
@@ -341,7 +440,13 @@
     <t xml:space="preserve">Minnesota</t>
   </si>
   <si>
+    <t xml:space="preserve">55415</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wembley Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HA90WS</t>
   </si>
 </sst>
 </file>
@@ -698,889 +803,994 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>68400</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="n">
         <v>40.44672</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-80.01575</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>65000</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="n">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="n">
         <v>36.090794</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-115.183952</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="n">
         <v>70000</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="n">
         <v>48.21881</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>11.62466</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>80000</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
         <v>32.747841</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-97.093628</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B6" t="n">
         <v>87523</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
         <v>19.30298</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-99.15047</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B7" t="n">
         <v>75523</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="n">
         <v>35.225845</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-80.853607</v>
       </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B8" t="n">
         <v>73208</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="n">
         <v>29.951439</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-90.08197</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B9" t="n">
         <v>76125</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="n">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="n">
         <v>39.744129</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-105.020828</v>
       </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B10" t="n">
         <v>82000</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="n">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="n">
         <v>38.9077</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-76.8633</v>
       </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
         <v>67895</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="n">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="n">
         <v>41.506035</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-81.700058</v>
       </c>
-      <c r="G11" t="s">
-        <v>11</v>
-      </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B12" t="n">
         <v>65000</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="n">
+        <v>56</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="n">
         <v>42.340115</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-83.046341</v>
       </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B13" t="n">
         <v>76416</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" t="n">
         <v>39.04894</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-94.48499</v>
       </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n">
         <v>66829</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="n">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="n">
         <v>42.09125</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-71.26446</v>
       </c>
-      <c r="G14" t="s">
-        <v>11</v>
-      </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B15" t="n">
         <v>65326</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" t="n">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="n">
         <v>25.95796</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>-80.239311</v>
       </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B16" t="n">
         <v>81441</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" t="n">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" t="n">
         <v>44.50183</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-88.06042</v>
       </c>
-      <c r="G16" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B17" t="n">
         <v>68500</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="n">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" t="n">
         <v>37.40316</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-121.96983</v>
       </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
       <c r="H17" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B18" t="n">
         <v>69596</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="n">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="n">
         <v>39.900898</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-75.168098</v>
       </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
       <c r="H18" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B19" t="n">
         <v>67000</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="n">
         <v>39.759991</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-86.163712</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B20" t="n">
         <v>69000</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" t="n">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" t="n">
         <v>47.59535</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>-122.33164</v>
       </c>
-      <c r="G20" t="s">
-        <v>11</v>
-      </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B21" t="n">
         <v>71008</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="n">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" t="n">
         <v>39.278088</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>-76.623322</v>
       </c>
-      <c r="G21" t="s">
-        <v>11</v>
-      </c>
       <c r="H21" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B22" t="n">
         <v>71000</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="n">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="n">
         <v>33.755489</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-84.401993</v>
       </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B23" t="n">
         <v>82500</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" t="n">
+        <v>99</v>
+      </c>
+      <c r="E23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" t="n">
         <v>40.813778</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-74.07431</v>
       </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B24" t="n">
         <v>71608</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
+        <v>103</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" t="n">
         <v>42.77367</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-78.787</v>
       </c>
-      <c r="G24" t="s">
-        <v>11</v>
-      </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>13</v>
+      </c>
+      <c r="I24" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B25" t="n">
         <v>69143</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" t="n">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" t="n">
         <v>36.1665</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-86.77126</v>
       </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
       <c r="H25" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="B26" t="n">
         <v>72220</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" t="n">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="n">
         <v>29.68486</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>-95.411667</v>
       </c>
-      <c r="G26" t="s">
-        <v>23</v>
-      </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="B27" t="n">
         <v>65515</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" t="n">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" t="n">
         <v>39.09587</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-84.51419</v>
       </c>
-      <c r="G27" t="s">
-        <v>11</v>
-      </c>
       <c r="H27" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="B28" t="n">
         <v>65890</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" t="n">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" t="n">
         <v>27.975958</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-82.503693</v>
       </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
       <c r="H28" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="B29" t="n">
         <v>70240</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" t="n">
+        <v>76</v>
+      </c>
+      <c r="E29" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" t="n">
         <v>33.953587</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>-118.33963</v>
       </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
       <c r="H29" t="s">
-        <v>94</v>
+        <v>122</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="B30" t="n">
         <v>61500</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" t="n">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>127</v>
+      </c>
+      <c r="F30" t="n">
         <v>41.862366</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>-87.617256</v>
       </c>
-      <c r="G30" t="s">
-        <v>11</v>
-      </c>
       <c r="H30" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="B31" t="n">
         <v>63400</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" t="n">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="n">
         <v>33.527283</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-112.263275</v>
       </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
       <c r="H31" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B32" t="n">
         <v>69132</v>
       </c>
       <c r="C32" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" t="n">
+        <v>68</v>
+      </c>
+      <c r="E32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" t="n">
         <v>30.32214</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>-81.63796</v>
       </c>
-      <c r="G32" t="s">
-        <v>11</v>
-      </c>
       <c r="H32" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I32" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="B33" t="n">
         <v>62850</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
-      </c>
-      <c r="E33" t="n">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F33" t="n">
         <v>51.60416</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>-0.06626</v>
       </c>
-      <c r="G33" t="s">
-        <v>11</v>
-      </c>
       <c r="H33" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="B34" t="n">
         <v>66655</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
-      </c>
-      <c r="E34" t="n">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="n">
         <v>44.973774</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>-93.258736</v>
       </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
       <c r="H34" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="B35" t="n">
         <v>90000</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" t="n">
+        <v>137</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" t="n">
         <v>51.55607</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-0.2796</v>
       </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
       <c r="H35" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
